--- a/printer/templates/receipt.xlsx
+++ b/printer/templates/receipt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\Desktop\MiniExcel\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\Desktop\TemplatePrinting\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,22 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="__Data__">Sheet1!$1:$1048576</definedName>
-    <definedName name="__Items__">Sheet1!$11:$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$73</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$10</definedName>
+    <definedName name="__Items__">Sheet1!$16:$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$80</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الوقت</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -85,12 +79,6 @@
     <t>&lt;#company_logo&gt;&lt;#if(&lt;#company_logo&gt;="";&lt;#imgdelete&gt;;)&gt;&lt;#imgsize(0;-1)&gt;</t>
   </si>
   <si>
-    <t>Hotline 15798</t>
-  </si>
-  <si>
-    <t>الأسعار تشمل ضريبة القيمة المضافة</t>
-  </si>
-  <si>
     <t>{{Company}}</t>
   </si>
   <si>
@@ -100,40 +88,64 @@
     <t>{{Date}}</t>
   </si>
   <si>
+    <t>{{InvoiceType}}</t>
+  </si>
+  <si>
+    <t>{{Time}}</t>
+  </si>
+  <si>
+    <t>{{Items.Price}}</t>
+  </si>
+  <si>
+    <t>{{Items.Count}}</t>
+  </si>
+  <si>
+    <t>{{Items.Title}}</t>
+  </si>
+  <si>
+    <t>{{ClientInfo.Title}}</t>
+  </si>
+  <si>
+    <t>{{ClientInfo.Value}}</t>
+  </si>
+  <si>
+    <t>{{InvoiceInfo.Title}}</t>
+  </si>
+  <si>
+    <t>{{InvoiceInfo.Value}}</t>
+  </si>
+  <si>
+    <t>{{BranchDesc}}</t>
+  </si>
+  <si>
+    <t>{{Cashier}}</t>
+  </si>
+  <si>
+    <t>Cahsier</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>{{InvoiceNo}}</t>
   </si>
   <si>
-    <t>{{InvoiceType}}</t>
-  </si>
-  <si>
-    <t>{{Time}}</t>
-  </si>
-  <si>
-    <t>{{Items.Price}}</t>
-  </si>
-  <si>
-    <t>{{Items.Count}}</t>
-  </si>
-  <si>
-    <t>{{Items.Title}}</t>
-  </si>
-  <si>
-    <t>{{ClientInfo.Title}}</t>
-  </si>
-  <si>
-    <t>{{ClientInfo.Value}}</t>
-  </si>
-  <si>
-    <t>{{InvoiceInfo.Title}}</t>
-  </si>
-  <si>
-    <t>{{InvoiceInfo.Value}}</t>
-  </si>
-  <si>
-    <t>كاشير: {{Cashier}}</t>
-  </si>
-  <si>
-    <t>{{BranchDesc}}</t>
+    <t>{{note1}}</t>
+  </si>
+  <si>
+    <t>{{note2}}</t>
+  </si>
+  <si>
+    <t>{{note3}}</t>
+  </si>
+  <si>
+    <t>{{DeliveryNameTitle}}</t>
+  </si>
+  <si>
+    <t>{{DeliveryName}}</t>
   </si>
 </sst>
 </file>
@@ -143,23 +155,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1000409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Vazir"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Hacen Tunisia"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Vazir"/>
     </font>
     <font>
       <sz val="10"/>
@@ -186,22 +185,20 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Vazir"/>
+      <sz val="10"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tajawal Medium"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -228,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -340,30 +337,122 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,7 +461,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="hair">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -380,129 +469,171 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,16 +726,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>385072</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>145383</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>354096</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>113488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61131</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232302</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -621,14 +752,448 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1861447" y="431133"/>
-          <a:ext cx="674584" cy="677748"/>
+          <a:off x="1886202" y="113488"/>
+          <a:ext cx="773962" cy="729574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552735" y="0"/>
+          <a:ext cx="1455237" cy="965889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5586"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466859</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="276359"/>
+          <a:ext cx="1515951" cy="685990"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7629"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466859</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="1515950" cy="228062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1005191"/>
+          <a:ext cx="3007468" cy="226979"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4053</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2050915" y="1280809"/>
+          <a:ext cx="956553" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4054</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490437</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1049777" y="1280809"/>
+          <a:ext cx="972766" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1280809"/>
+          <a:ext cx="1017351" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -921,213 +1486,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="B16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="1:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="26"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="18">
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A24:G25"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:G22"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="119" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
+  <pageSetup paperSize="120" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1141,88 +1830,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="7" customWidth="1"/>
-    <col min="5" max="7" width="1.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="7" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5" max="7" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="I8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="M9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="N9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+      <c r="M10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N10" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I10" s="9"/>
-      <c r="M10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/printer/templates/receipt.xlsx
+++ b/printer/templates/receipt.xlsx
@@ -17,16 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="__Data__">Sheet1!$1:$1048576</definedName>
-    <definedName name="__Items__">Sheet1!$16:$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$80</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$15</definedName>
+    <definedName name="__Items__">Sheet1!$20:$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$65</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -121,9 +121,6 @@
     <t>{{Cashier}}</t>
   </si>
   <si>
-    <t>Cahsier</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -133,22 +130,43 @@
     <t>{{InvoiceNo}}</t>
   </si>
   <si>
+    <t>{{TableNo}}</t>
+  </si>
+  <si>
+    <t>{{TableTitle}}</t>
+  </si>
+  <si>
+    <t>سررنا بزيارتكم.</t>
+  </si>
+  <si>
     <t>{{DeliveryNameTitle}}</t>
   </si>
   <si>
     <t>{{DeliveryName}}</t>
   </si>
   <si>
+    <t>{{FooterNote1}}</t>
+  </si>
+  <si>
+    <t>{{FooterNote2}}</t>
+  </si>
+  <si>
+    <t>{{FooterNote3}}</t>
+  </si>
+  <si>
     <t>{{Note}}</t>
   </si>
   <si>
-    <t>{{FooterNote2}}</t>
-  </si>
-  <si>
-    <t>{{FooterNote1}}</t>
-  </si>
-  <si>
-    <t>{{FooterNote3}}</t>
+    <t>{{PrintingDate}}</t>
+  </si>
+  <si>
+    <t>{{PrintingTime}}</t>
+  </si>
+  <si>
+    <t>printing-date</t>
+  </si>
+  <si>
+    <t>printing-time</t>
   </si>
 </sst>
 </file>
@@ -158,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1000409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -187,16 +205,43 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <name val="Tajawal Medium"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tajawal Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Tajawal Medium"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +272,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -469,12 +520,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -483,125 +571,152 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -609,17 +724,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,44 +830,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>354096</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>113488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>232302</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>113488</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1886202" y="113488"/>
-          <a:ext cx="773962" cy="729574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -940,13 +1023,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>48638</xdr:rowOff>
+      <xdr:rowOff>34349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -955,8 +1038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1005191"/>
-          <a:ext cx="3007468" cy="226979"/>
+          <a:off x="0" y="996374"/>
+          <a:ext cx="3095625" cy="494289"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -999,13 +1082,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4053</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1061,13 +1144,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4054</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>490437</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1123,13 +1206,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1146,6 +1229,126 @@
           <a:avLst>
             <a:gd name="adj" fmla="val 6876"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1010663"/>
+          <a:ext cx="2886075" cy="227587"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="996388"/>
+          <a:ext cx="3095625" cy="456187"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="12700">
@@ -1471,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1482,7 +1685,7 @@
     <col min="1" max="1" width="6.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="8" customWidth="1"/>
@@ -1491,12 +1694,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1506,40 +1709,40 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1555,265 +1758,340 @@
       <c r="G6" s="12"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="2.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="3.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="63" spans="5:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E63" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A24:G25"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:G22"/>
+  <mergeCells count="22">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A25:G26"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E7:G8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="120" scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
+  <pageSetup paperSize="120" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
